--- a/table/lm/In.situ.TOU_sp_lm.xlsx
+++ b/table/lm/In.situ.TOU_sp_lm.xlsx
@@ -392,16 +392,16 @@
         </is>
       </c>
       <c r="B2">
-        <v>13.55538407809303</v>
+        <v>13.5554</v>
       </c>
       <c r="C2">
-        <v>1.357301244494165</v>
+        <v>1.3573</v>
       </c>
       <c r="D2">
-        <v>9.987012192820032</v>
+        <v>9.987</v>
       </c>
       <c r="E2">
-        <v>2.178213932512808e-010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -411,16 +411,16 @@
         </is>
       </c>
       <c r="B3">
-        <v>-1.841999608292806</v>
+        <v>-1.842</v>
       </c>
       <c r="C3">
-        <v>1.801384093003759</v>
+        <v>1.8014</v>
       </c>
       <c r="D3">
-        <v>-1.022546837982411</v>
+        <v>-1.0225</v>
       </c>
       <c r="E3">
-        <v>0.31594278448763</v>
+        <v>0.3159</v>
       </c>
     </row>
     <row r="4">
@@ -430,16 +430,16 @@
         </is>
       </c>
       <c r="B4">
-        <v>-1.740688236563394</v>
+        <v>-1.7407</v>
       </c>
       <c r="C4">
-        <v>1.607777825561961</v>
+        <v>1.6078</v>
       </c>
       <c r="D4">
-        <v>-1.082667150204648</v>
+        <v>-1.0827</v>
       </c>
       <c r="E4">
-        <v>0.2888953090970283</v>
+        <v>0.2889</v>
       </c>
     </row>
     <row r="5">
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="B5">
-        <v>3.399318909638409</v>
+        <v>3.3993</v>
       </c>
       <c r="C5">
-        <v>1.913653135470273</v>
+        <v>1.9137</v>
       </c>
       <c r="D5">
-        <v>1.776350607448533</v>
+        <v>1.7764</v>
       </c>
       <c r="E5">
-        <v>0.08738015609665174</v>
+        <v>0.08740000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -468,16 +468,16 @@
         </is>
       </c>
       <c r="B6">
-        <v>1.758970135312606</v>
+        <v>1.759</v>
       </c>
       <c r="C6">
-        <v>1.417860280632419</v>
+        <v>1.4179</v>
       </c>
       <c r="D6">
-        <v>1.24058072529406</v>
+        <v>1.2406</v>
       </c>
       <c r="E6">
-        <v>0.2258391912187917</v>
+        <v>0.2258</v>
       </c>
     </row>
     <row r="7">
@@ -487,16 +487,16 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.7081071881376773</v>
+        <v>0.7081</v>
       </c>
       <c r="C7">
-        <v>1.993254811262943</v>
+        <v>1.9933</v>
       </c>
       <c r="D7">
-        <v>0.3552517139988814</v>
+        <v>0.3553</v>
       </c>
       <c r="E7">
-        <v>0.725266851876936</v>
+        <v>0.7252999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -506,16 +506,16 @@
         </is>
       </c>
       <c r="B8">
-        <v>-4.62990247115828</v>
+        <v>-4.6299</v>
       </c>
       <c r="C8">
-        <v>2.06483754086837</v>
+        <v>2.0648</v>
       </c>
       <c r="D8">
-        <v>-2.242259925791144</v>
+        <v>-2.2423</v>
       </c>
       <c r="E8">
-        <v>0.03369373565708558</v>
+        <v>0.0337</v>
       </c>
     </row>
   </sheetData>

--- a/table/lm/In.situ.TOU_sp_lm.xlsx
+++ b/table/lm/In.situ.TOU_sp_lm.xlsx
@@ -445,7 +445,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242</t>
+          <t>MonthOctober</t>
         </is>
       </c>
       <c r="B5">
@@ -483,7 +483,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DRM:CruiseOR1-1242</t>
+          <t>DRM:MonthOctober</t>
         </is>
       </c>
       <c r="B7">
@@ -502,7 +502,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Depth:CruiseOR1-1242</t>
+          <t>Depth:MonthOctober</t>
         </is>
       </c>
       <c r="B8">
@@ -560,19 +560,19 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>0.6518858270538002</v>
+        <v>0.6518858270538</v>
       </c>
       <c r="B2">
-        <v>0.5715517871431386</v>
+        <v>0.5715517871431385</v>
       </c>
       <c r="C2">
-        <v>8.114689959309331</v>
+        <v>8.114689959309327</v>
       </c>
       <c r="D2">
         <v>26</v>
       </c>
       <c r="E2">
-        <v>5.308077598834323e-005</v>
+        <v>5.30807759883436e-05</v>
       </c>
     </row>
   </sheetData>
